--- a/biology/Botanique/Silvianthus_bracteatus/Silvianthus_bracteatus.xlsx
+++ b/biology/Botanique/Silvianthus_bracteatus/Silvianthus_bracteatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silvianthus bracteatus est une espèce de plantes dicotylédones de la famille des Carlemanniaceae.
-L'aire de répartition naturelle de cette espèce s'étend de l'est de l'Himalaya jusqu'en Chine (Yunnan) et au Myanmar. C'est un arbuste qui pousse principalement dans le biome tropical humide[1].
-Les Carlemanniaceae sont une famille tropicale d'Asie de l'Estn et d'Asie du Sud-Est. Ce sont des sous-arbustes vivaces. Ils comprennent deux genres[2]. Les anciens |systèmes de taxonomie végétale placent les deux genres, Carlemannia et Silvianthus au sein des Caprifoliaceae ou des Rubiaceae[2],[3]. La classification du Angiosperm Phylogeny Group de 2003 place le groupe dans les Lamiales, en tant que famille végétale plus étroitement liée aux Oleaceae qu'aux Caprifoliacées.
+L'aire de répartition naturelle de cette espèce s'étend de l'est de l'Himalaya jusqu'en Chine (Yunnan) et au Myanmar. C'est un arbuste qui pousse principalement dans le biome tropical humide.
+Les Carlemanniaceae sont une famille tropicale d'Asie de l'Estn et d'Asie du Sud-Est. Ce sont des sous-arbustes vivaces. Ils comprennent deux genres. Les anciens |systèmes de taxonomie végétale placent les deux genres, Carlemannia et Silvianthus au sein des Caprifoliaceae ou des Rubiaceae,. La classification du Angiosperm Phylogeny Group de 2003 place le groupe dans les Lamiales, en tant que famille végétale plus étroitement liée aux Oleaceae qu'aux Caprifoliacées.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Silvianthus bracteatus Hook.f[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Silvianthus bracteatus Hook.f.
 </t>
         </is>
       </c>
